--- a/data/output/FV2504_FV2410/UTILMD/55005.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55005.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="231">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="231">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -837,6 +837,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U103" totalsRowShown="0">
+  <autoFilter ref="A1:U103"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,7 +1156,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5772,5 +5805,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55005.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="330">
   <si>
     <t>#</t>
   </si>
@@ -5535,44 +5535,42 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V83" s="5"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -5710,9 +5708,7 @@
         <v>197</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>36</v>
       </c>
@@ -5739,44 +5735,42 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M87" s="5" t="s">
+      <c r="K87" s="2"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V87" s="5"/>
+      <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55005.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55005.xlsx
@@ -1118,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1141,6 +1141,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1149,6 +1152,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1591,7 +1597,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1955,7 +1961,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2101,7 +2107,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2303,7 +2309,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2611,7 +2617,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2811,7 +2817,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3185,7 +3191,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3493,7 +3499,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3669,26 +3675,26 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>202</v>
       </c>
       <c r="K43" s="6" t="s">
@@ -3697,23 +3703,23 @@
       <c r="L43" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>202</v>
       </c>
       <c r="V43" s="6" t="s">
@@ -3897,54 +3903,54 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="2" t="s">
         <v>213</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P47" s="5"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="V47" s="5" t="s">
+      <c r="V47" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4131,26 +4137,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M51" s="5"/>
@@ -4168,33 +4174,33 @@
       <c r="A52" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M52" s="5"/>
@@ -4212,31 +4218,31 @@
       <c r="A53" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M53" s="5"/>
@@ -4254,33 +4260,33 @@
       <c r="A54" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M54" s="5"/>
@@ -4301,26 +4307,26 @@
       <c r="B55" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M55" s="5"/>
@@ -4338,33 +4344,33 @@
       <c r="A56" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M56" s="5"/>
@@ -4382,33 +4388,33 @@
       <c r="A57" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M57" s="5"/>
@@ -4426,31 +4432,31 @@
       <c r="A58" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M58" s="5"/>
@@ -4468,31 +4474,31 @@
       <c r="A59" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M59" s="5"/>
@@ -4510,31 +4516,31 @@
       <c r="A60" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M60" s="5"/>
@@ -4552,31 +4558,31 @@
       <c r="A61" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8" t="s">
+      <c r="H61" s="9"/>
+      <c r="I61" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="J61" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M61" s="5"/>
@@ -4594,33 +4600,33 @@
       <c r="A62" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8" t="s">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K62" s="8" t="s">
+      <c r="J62" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="L62" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M62" s="5"/>
@@ -4638,31 +4644,31 @@
       <c r="A63" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+      <c r="J63" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M63" s="5"/>
@@ -4680,31 +4686,31 @@
       <c r="A64" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="9"/>
+      <c r="G64" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="J64" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M64" s="5"/>
@@ -4732,29 +4738,29 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11" t="s">
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11" t="s">
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="V65" s="11"/>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4770,35 +4776,35 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="R66" s="11" t="s">
+      <c r="R66" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4814,35 +4820,35 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q67" s="11" t="s">
+      <c r="Q67" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="R67" s="11" t="s">
+      <c r="R67" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="U67" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V67" s="11"/>
+      <c r="U67" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -4858,33 +4864,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11" t="s">
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="U68" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V68" s="11"/>
+      <c r="U68" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -4900,33 +4906,33 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11" t="s">
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U69" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V69" s="11"/>
+      <c r="U69" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -4942,33 +4948,33 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11" t="s">
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11" t="s">
+      <c r="S70" s="13"/>
+      <c r="T70" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="U70" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V70" s="11"/>
+      <c r="U70" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -4984,33 +4990,33 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11" t="s">
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="U71" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V71" s="11"/>
+      <c r="U71" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V71" s="13"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
@@ -5026,33 +5032,33 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11" t="s">
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11" t="s">
+      <c r="S72" s="13"/>
+      <c r="T72" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="U72" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V72" s="11"/>
+      <c r="U72" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5068,33 +5074,33 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P73" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11" t="s">
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11" t="s">
+      <c r="S73" s="13"/>
+      <c r="T73" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="U73" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V73" s="11"/>
+      <c r="U73" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5110,56 +5116,56 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11" t="s">
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11" t="s">
+      <c r="S74" s="13"/>
+      <c r="T74" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="U74" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V74" s="11" t="s">
+      <c r="U74" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V74" s="13" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="6" t="s">
         <v>207</v>
       </c>
@@ -5169,22 +5175,22 @@
       <c r="L75" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="O75" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
       <c r="U75" s="6" t="s">
         <v>206</v>
       </c>
@@ -5379,22 +5385,22 @@
       <c r="B79" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L79" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M79" s="5"/>
@@ -5412,27 +5418,27 @@
       <c r="A80" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M80" s="5"/>
@@ -5450,33 +5456,33 @@
       <c r="A81" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M81" s="5"/>
@@ -5494,33 +5500,33 @@
       <c r="A82" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="L82" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M82" s="5"/>
@@ -5555,7 +5561,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -5755,7 +5761,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -5943,22 +5949,22 @@
       <c r="B91" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K91" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L91" s="9" t="s">
+      <c r="L91" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M91" s="5"/>
@@ -5976,27 +5982,27 @@
       <c r="A92" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8" t="s">
+      <c r="E92" s="9"/>
+      <c r="F92" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M92" s="5"/>
@@ -6014,33 +6020,33 @@
       <c r="A93" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8" t="s">
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J93" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9" t="s">
+      <c r="J93" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M93" s="5"/>
@@ -6061,24 +6067,24 @@
       <c r="B94" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8" t="s">
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M94" s="5"/>
@@ -6096,33 +6102,33 @@
       <c r="A95" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8" t="s">
+      <c r="H95" s="9"/>
+      <c r="I95" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J95" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="J95" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M95" s="5"/>
@@ -6140,33 +6146,33 @@
       <c r="A96" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K96" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="L96" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M96" s="5"/>
@@ -6187,20 +6193,20 @@
       <c r="B97" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M97" s="5"/>
@@ -6218,27 +6224,27 @@
       <c r="A98" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M98" s="5"/>
@@ -6256,33 +6262,33 @@
       <c r="A99" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="J99" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M99" s="5"/>
@@ -6300,33 +6306,33 @@
       <c r="A100" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="J100" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>221</v>
       </c>
       <c r="M100" s="5"/>
@@ -6341,48 +6347,48 @@
       <c r="V100" s="5"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5" t="s">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5" t="s">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K101" s="5"/>
+      <c r="K101" s="2"/>
       <c r="L101" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="M101" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5" t="s">
+      <c r="N101" s="2"/>
+      <c r="O101" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P101" s="5"/>
+      <c r="P101" s="2"/>
       <c r="Q101" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5" t="s">
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V101" s="5"/>
+      <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
